--- a/biology/Botanique/Esplanade_Jacques-Chaban-Delmas/Esplanade_Jacques-Chaban-Delmas.xlsx
+++ b/biology/Botanique/Esplanade_Jacques-Chaban-Delmas/Esplanade_Jacques-Chaban-Delmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade Jacques-Chaban-Delmas est une voie située dans le quartier de l'École-Militaire du 7e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'esplanade Jacques-Chaban-Delmas est desservie à proximité par la ligne 13 à la station Saint-François-Xavier.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom de l'homme politique français Jacques Chaban-Delmas (1915-2000), ancien résistant et chef militaire, en raison de sa proximité avec l'École militaire.
 </t>
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette voie, qui était précédemment une partie de la place El Salvador correspondant au terre-plein central de l'avenue de Breteuil, a pris sa dénomination actuelle par un arrêté municipal du 19 août 2004.
 </t>
@@ -605,7 +623,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'esplanade donne sur l'église Saint-François-Xavier et débouche sur les Invalides.</t>
         </is>
